--- a/Logs/7th Week Logs.xlsx
+++ b/Logs/7th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3DA16A-EB73-4016-AAC9-5C5B830FC90A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB201E2-B0F2-4C7B-BF26-998304363E0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="948" windowWidth="11520" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,9 +974,15 @@
       <c r="D9" s="14">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="14">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="F9" s="4">
+        <v>80</v>
+      </c>
+      <c r="G9" s="12">
+        <v>360</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1122,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>

--- a/Logs/7th Week Logs.xlsx
+++ b/Logs/7th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB201E2-B0F2-4C7B-BF26-998304363E0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF229BC7-1B07-4E38-97CA-CFF950AB203F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="948" windowWidth="11520" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,12 @@
       </rPr>
       <t xml:space="preserve"> Lectures </t>
     </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Lectures Notes</t>
   </si>
 </sst>
 </file>
@@ -835,7 +841,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,14 +999,30 @@
       <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="38">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43538</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12">
+        <v>245</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="41"/>
     </row>
@@ -1122,7 +1144,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>450</v>
+        <v>695</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>

--- a/Logs/7th Week Logs.xlsx
+++ b/Logs/7th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF229BC7-1B07-4E38-97CA-CFF950AB203F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1186E63B-D2CE-4812-8FB5-6B374A5A29C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="948" windowWidth="11520" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -841,7 +841,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,14 +1027,30 @@
       <c r="K10" s="41"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="38">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43539</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F11" s="4">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12">
+        <v>180</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="41"/>
     </row>
@@ -1144,7 +1160,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>695</v>
+        <v>875</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>

--- a/Logs/7th Week Logs.xlsx
+++ b/Logs/7th Week Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1186E63B-D2CE-4812-8FB5-6B374A5A29C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1308F-E4F2-4F02-9516-60E016E9805C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="948" windowWidth="11520" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -108,17 +108,52 @@
   <si>
     <t>Lectures Notes</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Razor Pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Notes</t>
+    </r>
+  </si>
+  <si>
+    <t>Bug Fix (Migrations + BD Update)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -502,48 +537,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -554,10 +589,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +1028,7 @@
       <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="43" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="4"/>
@@ -1055,26 +1091,56 @@
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="38">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43541</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="F12" s="4">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12">
+        <v>140</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="38">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43539</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="43"/>
+      <c r="G13" s="12">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="41"/>
     </row>
@@ -1160,7 +1226,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(G8:G19)</f>
-        <v>875</v>
+        <v>1035</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
